--- a/Psychopy Tasks/spreadsheet5.xlsx
+++ b/Psychopy Tasks/spreadsheet5.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jojo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jojo\Downloads\GitHub\WTP_social\Psychopy Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339AE8F3-CC22-4981-BF05-7510A92778B7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,9 +31,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="5">
   <si>
     <t>selectBlock</t>
+  </si>
+  <si>
+    <t>greenText</t>
+  </si>
+  <si>
+    <t>redText</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>red</t>
   </si>
 </sst>
 </file>
@@ -384,145 +397,323 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A26"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A1:A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
